--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H2">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J2">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N2">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O2">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P2">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q2">
-        <v>77.58055575788399</v>
+        <v>15.56061716993889</v>
       </c>
       <c r="R2">
-        <v>698.2250018209559</v>
+        <v>140.04555452945</v>
       </c>
       <c r="S2">
-        <v>0.01743042095758898</v>
+        <v>0.003686689433954404</v>
       </c>
       <c r="T2">
-        <v>0.01743042095758898</v>
+        <v>0.003686689433954404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H3">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J3">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N3">
         <v>0.177614</v>
       </c>
       <c r="O3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q3">
-        <v>0.1241030263917778</v>
+        <v>0.02822868639222222</v>
       </c>
       <c r="R3">
-        <v>1.116927237526</v>
+        <v>0.25405817753</v>
       </c>
       <c r="S3">
-        <v>2.788286279967302E-05</v>
+        <v>6.688063765084379E-06</v>
       </c>
       <c r="T3">
-        <v>2.788286279967301E-05</v>
+        <v>6.688063765084378E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.096169666666666</v>
+        <v>0.4767983333333334</v>
       </c>
       <c r="H4">
-        <v>6.288508999999999</v>
+        <v>1.430395</v>
       </c>
       <c r="I4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="J4">
-        <v>0.01755614486036394</v>
+        <v>0.003723890400117776</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N4">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O4">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P4">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q4">
-        <v>0.4354778508035556</v>
+        <v>0.1287875210183334</v>
       </c>
       <c r="R4">
-        <v>3.919300657232</v>
+        <v>1.159087689165</v>
       </c>
       <c r="S4">
-        <v>9.78410399752869E-05</v>
+        <v>3.051290239828803E-05</v>
       </c>
       <c r="T4">
-        <v>9.784103997528689E-05</v>
+        <v>3.051290239828802E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>326.119697</v>
       </c>
       <c r="I5">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J5">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N5">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O5">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P5">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q5">
-        <v>4023.298263046572</v>
+        <v>3547.707980378475</v>
       </c>
       <c r="R5">
-        <v>36209.68436741914</v>
+        <v>31929.37182340627</v>
       </c>
       <c r="S5">
-        <v>0.9039350347230748</v>
+        <v>0.8405384814224824</v>
       </c>
       <c r="T5">
-        <v>0.9039350347230748</v>
+        <v>0.8405384814224822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>326.119697</v>
       </c>
       <c r="I6">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J6">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N6">
         <v>0.177614</v>
       </c>
       <c r="O6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q6">
-        <v>6.435935984773112</v>
+        <v>6.435935984773111</v>
       </c>
       <c r="R6">
         <v>57.923423862958</v>
       </c>
       <c r="S6">
-        <v>0.001445994713169996</v>
+        <v>0.001524830084407452</v>
       </c>
       <c r="T6">
-        <v>0.001445994713169996</v>
+        <v>0.001524830084407451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>326.119697</v>
       </c>
       <c r="I7">
-        <v>0.9104550287436967</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="J7">
-        <v>0.9104550287436968</v>
+        <v>0.8490200321922391</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N7">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O7">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P7">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q7">
-        <v>22.58371654620622</v>
+        <v>29.36262174565766</v>
       </c>
       <c r="R7">
-        <v>203.253448915856</v>
+        <v>264.263595710919</v>
       </c>
       <c r="S7">
-        <v>0.005073999307451965</v>
+        <v>0.006956720685349337</v>
       </c>
       <c r="T7">
-        <v>0.005073999307451965</v>
+        <v>0.006956720685349335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H8">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J8">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N8">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O8">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P8">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q8">
-        <v>318.118425461604</v>
+        <v>615.3230090807056</v>
       </c>
       <c r="R8">
-        <v>2863.065829154436</v>
+        <v>5537.90708172635</v>
       </c>
       <c r="S8">
-        <v>0.07147329657531688</v>
+        <v>0.145785016832708</v>
       </c>
       <c r="T8">
-        <v>0.07147329657531688</v>
+        <v>0.145785016832708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H9">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J9">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N9">
         <v>0.177614</v>
       </c>
       <c r="O9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q9">
-        <v>0.5088834304562223</v>
+        <v>1.116264224198889</v>
       </c>
       <c r="R9">
-        <v>4.579950874106001</v>
+        <v>10.04637801779</v>
       </c>
       <c r="S9">
-        <v>0.0001143334476602085</v>
+        <v>0.0002644701990873228</v>
       </c>
       <c r="T9">
-        <v>0.0001143334476602084</v>
+        <v>0.0002644701990873229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.595326333333334</v>
+        <v>18.85432833333333</v>
       </c>
       <c r="H10">
-        <v>25.785979</v>
+        <v>56.562985</v>
       </c>
       <c r="I10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="J10">
-        <v>0.07198882639593941</v>
+        <v>0.1472560774076432</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N10">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O10">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P10">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q10">
-        <v>1.785673315532445</v>
+        <v>5.092723771788332</v>
       </c>
       <c r="R10">
-        <v>16.071059839792</v>
+        <v>45.834513946095</v>
       </c>
       <c r="S10">
-        <v>0.0004011963729623205</v>
+        <v>0.001206590375847811</v>
       </c>
       <c r="T10">
-        <v>0.0004011963729623204</v>
+        <v>0.001206590375847811</v>
       </c>
     </row>
   </sheetData>
